--- a/Engine CAD - Structural Integrity/Engine CAD Master Dimension Sheet.xlsx
+++ b/Engine CAD - Structural Integrity/Engine CAD Master Dimension Sheet.xlsx
@@ -8,12 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuval\Documents\GitHub\Mu-Engine\Engine CAD - Structural Integrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02E4595-0E3F-4177-B668-E0ABB826837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E2678-441A-4480-B4E0-542FE0CF2E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{01E5E2C6-0EFD-47EC-A215-438B184DB575}"/>
   </bookViews>
   <sheets>
-    <sheet name="TCA Engine Dimensions" sheetId="1" r:id="rId1"/>
+    <sheet name="Master Dimensions" sheetId="2" r:id="rId1"/>
+    <sheet name="Manifold Dome" sheetId="7" r:id="rId2"/>
+    <sheet name="LOX Plate" sheetId="11" r:id="rId3"/>
+    <sheet name="Kerosene Injector Plate" sheetId="1" r:id="rId4"/>
+    <sheet name="Chamber Nozzle" sheetId="10" r:id="rId5"/>
+    <sheet name="Dowel" sheetId="12" r:id="rId6"/>
+    <sheet name="Injector Needle" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
   <si>
     <t>Kerosene Injector Plate</t>
   </si>
@@ -44,9 +50,6 @@
     <t>Plate Thickness</t>
   </si>
   <si>
-    <t>Inner Plate Diameter</t>
-  </si>
-  <si>
     <t>Standoff Diameter</t>
   </si>
   <si>
@@ -59,9 +62,6 @@
     <t>O-Ring Width</t>
   </si>
   <si>
-    <t>O-Ring Profile</t>
-  </si>
-  <si>
     <t>TCA Bottom Shell</t>
   </si>
   <si>
@@ -101,29 +101,185 @@
     <t>LOX Plate Diameter</t>
   </si>
   <si>
-    <t>Hose Diameter</t>
-  </si>
-  <si>
-    <t>Kerosene Plate/Manifold Thickness</t>
-  </si>
-  <si>
     <t>LOX Injector Plate</t>
   </si>
   <si>
     <t>LOX Plate Outer Diameter</t>
   </si>
   <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Mainfold Thickness/Standoff Height</t>
+    <t>O-Ring Profile Position</t>
+  </si>
+  <si>
+    <t>Manifold Diameter</t>
+  </si>
+  <si>
+    <t>Slot Radius</t>
+  </si>
+  <si>
+    <t>Slot Diameter</t>
+  </si>
+  <si>
+    <t>Dowel Holes Diameter</t>
+  </si>
+  <si>
+    <t>Dowel Placement Inner Diameter</t>
+  </si>
+  <si>
+    <t>Dowel Placement Outer Diameter</t>
+  </si>
+  <si>
+    <t>Dowel Holes Depth</t>
+  </si>
+  <si>
+    <t>Injector Holes Diameter</t>
+  </si>
+  <si>
+    <t>Inner Ring Holes Num</t>
+  </si>
+  <si>
+    <t>Middle Ring Holes Num</t>
+  </si>
+  <si>
+    <t>Outer Ring Holes Num</t>
+  </si>
+  <si>
+    <t>Section 1: Manifold Dome</t>
+  </si>
+  <si>
+    <t>Section 2: LOX Plate</t>
+  </si>
+  <si>
+    <t>Section 3: Kerosene Plate</t>
+  </si>
+  <si>
+    <t>Section 4: Chamber Nozzle</t>
+  </si>
+  <si>
+    <t>Mainfold Depth/Standoff Height</t>
+  </si>
+  <si>
+    <t>Shell Thickness</t>
+  </si>
+  <si>
+    <t>LOX Inner Flange</t>
+  </si>
+  <si>
+    <t>Manifold Dimensions</t>
+  </si>
+  <si>
+    <t>O-Ring Dimensions</t>
+  </si>
+  <si>
+    <t>Kerosene Plate Thickness</t>
+  </si>
+  <si>
+    <t>Inner Ring Diameter</t>
+  </si>
+  <si>
+    <t>Outer Ring Diameter</t>
+  </si>
+  <si>
+    <t>Dowl Holes Diameter</t>
+  </si>
+  <si>
+    <t>Injector Hole Inner Diameter</t>
+  </si>
+  <si>
+    <t>Injector Hole Outer Diameter</t>
+  </si>
+  <si>
+    <t>LOX Injector Hole Diameter</t>
+  </si>
+  <si>
+    <t>Inner Ring Num</t>
+  </si>
+  <si>
+    <t>Middle Ring Num</t>
+  </si>
+  <si>
+    <t>Outer Ring Num</t>
+  </si>
+  <si>
+    <t>LOX O-Ring Width</t>
+  </si>
+  <si>
+    <t>LOX O-Ring Depth</t>
+  </si>
+  <si>
+    <t>LOX O-Ring Diameter</t>
+  </si>
+  <si>
+    <t>Kerosene Inlet Diameter</t>
+  </si>
+  <si>
+    <t>Bolt Hole Diameter</t>
+  </si>
+  <si>
+    <t>Bold Hole Placement Diameter</t>
+  </si>
+  <si>
+    <t>Number of Bolts</t>
+  </si>
+  <si>
+    <t>Dole Hole Diameter</t>
+  </si>
+  <si>
+    <t>Dowel Hole Depth</t>
+  </si>
+  <si>
+    <t>LOX O-Ring</t>
+  </si>
+  <si>
+    <t>LOX Dimensions</t>
+  </si>
+  <si>
+    <t>Bolts Dimensions</t>
+  </si>
+  <si>
+    <t>Bolt Placement Diameter</t>
+  </si>
+  <si>
+    <t>Bolt Diameter</t>
+  </si>
+  <si>
+    <t>Dowel</t>
+  </si>
+  <si>
+    <t>Dowel Diameter</t>
+  </si>
+  <si>
+    <t>Dowel Length</t>
+  </si>
+  <si>
+    <t>Injector Needle</t>
+  </si>
+  <si>
+    <t>Needle Outer Diameter</t>
+  </si>
+  <si>
+    <t>Needle Inner Diameter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOX Injector Hole Diameter </t>
+  </si>
+  <si>
+    <t>Injector Needle Dimensions</t>
+  </si>
+  <si>
+    <t>Dowel Holes Dimensions</t>
+  </si>
+  <si>
+    <t>Injector Needle Inner Diameter</t>
+  </si>
+  <si>
+    <t>Needle Length</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +300,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -159,7 +330,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -167,157 +338,77 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,11 +722,823 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6FADF1-9395-4E6B-BC32-4B1649CE3BDF}">
-  <dimension ref="A1:H17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBECC7C3-CD7B-4475-9BEE-6277DBED4390}">
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="32.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="32.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.08984375" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="8.7265625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="13"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="20">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="20">
+        <v>0.25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="21">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.75</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20">
+        <v>2.25</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="22">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="23"/>
+      <c r="G5" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="22">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0.67520000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="23"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="19">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E15" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="23"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E17" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="3">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F19" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E20" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3">
+        <v>5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E22" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E29" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB88340B-D992-43B4-81B5-FA0C4C40B2C1}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10">
+        <f>'Master Dimensions'!F3</f>
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10">
+        <f>'Master Dimensions'!D2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10">
+        <f>'Master Dimensions'!B6</f>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10">
+        <f>'Master Dimensions'!B3</f>
+        <v>1.75</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10">
+        <f>'Master Dimensions'!B5</f>
+        <v>0.25</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10">
+        <f>'Master Dimensions'!B2</f>
+        <v>6</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10">
+        <f>'Master Dimensions'!F2</f>
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10">
+        <f>'Master Dimensions'!D3</f>
+        <v>2.25</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10">
+        <f>'Master Dimensions'!B12</f>
+        <v>0.08</v>
+      </c>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="10">
+        <f>'Master Dimensions'!B13</f>
+        <v>0.08</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="10">
+        <f>'Master Dimensions'!B14</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="1">
+        <f>'Master Dimensions'!F10</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1">
+        <f>'Master Dimensions'!B8</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1">
+        <f>'Master Dimensions'!B9</f>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1">
+        <f>'Master Dimensions'!B10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1">
+        <f>'Master Dimensions'!F18</f>
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1">
+        <f>'Master Dimensions'!F16</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1">
+        <f>'Master Dimensions'!F19</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A3F92-D26B-47A0-894F-2E39366607C3}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="10">
+        <f>'Master Dimensions'!D2</f>
+        <v>0.25</v>
+      </c>
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="10">
+        <f>'Master Dimensions'!D3</f>
+        <v>2.25</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10">
+        <f>'Master Dimensions'!F17</f>
+        <v>2.25</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10">
+        <f>'Master Dimensions'!F16</f>
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10">
+        <f>'Master Dimensions'!F19</f>
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10">
+        <f>'Master Dimensions'!F25</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10">
+        <f>'Master Dimensions'!F26</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10">
+        <f>'Master Dimensions'!F27</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10">
+        <f>'Master Dimensions'!F24</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1">
+        <f>'Master Dimensions'!F23</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="1">
+        <f>'Master Dimensions'!F22</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6FADF1-9395-4E6B-BC32-4B1649CE3BDF}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -647,263 +1550,355 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="5"/>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="26" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="10">
+        <f>'Master Dimensions'!F6</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9">
+        <f>'Master Dimensions'!F3</f>
+        <v>0.25</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9">
+        <f>'Master Dimensions'!F7</f>
+        <v>1.75</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9">
+        <f>'Master Dimensions'!F8</f>
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9">
+        <f>'Master Dimensions'!F4</f>
+        <v>4.5</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9">
+        <f>'Master Dimensions'!F12</f>
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9">
+        <f>'Master Dimensions'!F13</f>
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9">
+        <f>'Master Dimensions'!F14</f>
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="1">
+        <f>'Master Dimensions'!F9</f>
+        <v>0.67520000000000002</v>
+      </c>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="1">
+        <f>'Master Dimensions'!F10</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="1">
+        <f>'Master Dimensions'!F16</f>
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="28">
+      <c r="B13" s="4"/>
+      <c r="C13" s="1">
+        <f>'Master Dimensions'!F17</f>
+        <v>2.25</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1">
+        <f>'Master Dimensions'!F18</f>
+        <v>3.65</v>
+      </c>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="1">
+        <f>'Master Dimensions'!F19</f>
         <v>0.1</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="8">
-        <v>0.4</v>
-      </c>
-      <c r="H2" s="29"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8">
-        <v>0.25</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="28">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8">
-        <v>3.5</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="28">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="15" t="s">
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="1">
+        <f>'Master Dimensions'!F21</f>
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="1">
+        <f>'Master Dimensions'!F22</f>
+        <v>18</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="1">
+        <f>'Master Dimensions'!F23</f>
+        <v>14</v>
+      </c>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="1">
+        <f>'Master Dimensions'!F24</f>
         <v>12</v>
       </c>
-      <c r="F5" s="16"/>
-      <c r="G5" s="28">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8">
-        <v>4.5</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8">
-        <v>0.08</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="8">
-        <f>C3+C2</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="E10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="8">
-        <f>C12</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="E11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="8">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="8">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="27">
-        <v>3</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="16"/>
-      <c r="G14" s="28">
-        <f>G4</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E15" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="G15" s="8">
-        <f>C6</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E16" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="16"/>
-      <c r="G16" s="8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.35">
-      <c r="E17" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="11">
-        <v>0.75</v>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="1">
+        <f>'Master Dimensions'!F25</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="1">
+        <f>'Master Dimensions'!F26</f>
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A11:C11"/>
+  <mergeCells count="31">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A14:B14"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A2:B2"/>
@@ -911,6 +1906,510 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B7CCC-865F-4579-BA0C-2C80C7C53E6D}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10">
+        <f>'Master Dimensions'!H2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10">
+        <f>'Master Dimensions'!H3</f>
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10">
+        <f>'Master Dimensions'!H4</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10">
+        <f>'Master Dimensions'!H5</f>
+        <v>4.5</v>
+      </c>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10">
+        <f>'Master Dimensions'!H6</f>
+        <v>10</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10">
+        <f>'Master Dimensions'!B9</f>
+        <v>5.4</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10">
+        <f>'Master Dimensions'!B8</f>
+        <v>0.25</v>
+      </c>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10">
+        <f>'Master Dimensions'!B10</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C7CB4C-8DD4-45CD-8E05-3782694D4013}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10">
+        <f>'Master Dimensions'!F16</f>
+        <v>0.1</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10">
+        <f>'Master Dimensions'!F19*2</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE9DAE8-D235-4C51-9008-B887B9C919C0}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="10">
+        <f>'Master Dimensions'!F27</f>
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="10">
+        <f>'Master Dimensions'!F28</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="10">
+        <f>'Master Dimensions'!F29</f>
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="15"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Engine CAD - Structural Integrity/Engine CAD Master Dimension Sheet.xlsx
+++ b/Engine CAD - Structural Integrity/Engine CAD Master Dimension Sheet.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kuval\Documents\GitHub\Mu-Engine\Engine CAD - Structural Integrity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36E2678-441A-4480-B4E0-542FE0CF2E50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A76FE-F5CE-41B7-9B1D-C8EF70839BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{01E5E2C6-0EFD-47EC-A215-438B184DB575}"/>
   </bookViews>
   <sheets>
     <sheet name="Master Dimensions" sheetId="2" r:id="rId1"/>
-    <sheet name="Manifold Dome" sheetId="7" r:id="rId2"/>
-    <sheet name="LOX Plate" sheetId="11" r:id="rId3"/>
-    <sheet name="Kerosene Injector Plate" sheetId="1" r:id="rId4"/>
-    <sheet name="Chamber Nozzle" sheetId="10" r:id="rId5"/>
-    <sheet name="Dowel" sheetId="12" r:id="rId6"/>
-    <sheet name="Injector Needle" sheetId="14" r:id="rId7"/>
+    <sheet name="Structural Integrity Dimensions" sheetId="15" r:id="rId2"/>
+    <sheet name="Manifold Dome" sheetId="7" r:id="rId3"/>
+    <sheet name="LOX Plate" sheetId="11" r:id="rId4"/>
+    <sheet name="Kerosene Injector Plate" sheetId="1" r:id="rId5"/>
+    <sheet name="Chamber Nozzle" sheetId="10" r:id="rId6"/>
+    <sheet name="Dowel" sheetId="12" r:id="rId7"/>
+    <sheet name="Injector Needle" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="86">
   <si>
     <t>Kerosene Injector Plate</t>
   </si>
@@ -62,9 +63,6 @@
     <t>O-Ring Width</t>
   </si>
   <si>
-    <t>TCA Bottom Shell</t>
-  </si>
-  <si>
     <t>Flange Thickness</t>
   </si>
   <si>
@@ -80,9 +78,6 @@
     <t>Pipe Length</t>
   </si>
   <si>
-    <t>TCA Top Shell</t>
-  </si>
-  <si>
     <t>LOX Plate Thickness</t>
   </si>
   <si>
@@ -273,13 +268,46 @@
   </si>
   <si>
     <t>Needle Length</t>
+  </si>
+  <si>
+    <t>Manifold Dome</t>
+  </si>
+  <si>
+    <t>Chamber Nozzle</t>
+  </si>
+  <si>
+    <t>Structural Integrity</t>
+  </si>
+  <si>
+    <t>in^2</t>
+  </si>
+  <si>
+    <t>*Not linked to document</t>
+  </si>
+  <si>
+    <t>LOX Dome Area</t>
+  </si>
+  <si>
+    <t>Kerosene Plate Top (Up to O-Rings)</t>
+  </si>
+  <si>
+    <t>LOX Plate Area (Up To O-Rings)</t>
+  </si>
+  <si>
+    <t>Kerosene Plate Well</t>
+  </si>
+  <si>
+    <t>Kerosene Plate Bottom</t>
+  </si>
+  <si>
+    <t>Total Needle Num</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,6 +343,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -342,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -351,6 +385,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -358,56 +408,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBECC7C3-CD7B-4475-9BEE-6277DBED4390}">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -743,60 +748,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13" t="s">
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="13"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="20">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6">
         <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="20">
+        <v>11</v>
+      </c>
+      <c r="D2" s="6">
         <v>0.25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F2" s="3">
         <v>4.5</v>
       </c>
-      <c r="G2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3">
         <v>0.4</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3">
         <v>1.75</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="20">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6">
         <v>2.25</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -805,102 +810,102 @@
       <c r="F3" s="3">
         <v>0.25</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.23699999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="22">
-        <v>0.23699999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="G4" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="22">
+      <c r="H4" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3">
         <v>0.25</v>
       </c>
-      <c r="E5" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="22">
+      <c r="E5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="6">
         <v>4.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <v>0.4</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="22">
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="6">
         <v>0.1</v>
       </c>
-      <c r="G6" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H6" s="3">
+        <v>10</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="21">
+      <c r="A7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3">
         <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2">
         <v>0.25</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="3">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2">
         <v>5.4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F9" s="3">
         <v>0.67520000000000002</v>
@@ -908,78 +913,78 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2">
         <v>8</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="23"/>
+      <c r="A11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B12" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="21">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="19">
-        <v>0.08</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="21">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="19">
+      <c r="B14" s="3">
         <v>2</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="E15" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="23"/>
+      <c r="E15" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="E16" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="3">
         <v>0.1</v>
@@ -987,15 +992,15 @@
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E17" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" s="3">
-        <v>2.25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E18" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F18" s="3">
         <v>3.65</v>
@@ -1003,20 +1008,20 @@
     </row>
     <row r="19" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E19" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="3">
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E20" s="12" t="s">
-        <v>73</v>
+      <c r="E20" s="4" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E21" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F21" s="3">
         <v>5.8999999999999997E-2</v>
@@ -1024,7 +1029,7 @@
     </row>
     <row r="22" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E22" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F22" s="3">
         <v>18</v>
@@ -1032,7 +1037,7 @@
     </row>
     <row r="23" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E23" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="3">
         <v>14</v>
@@ -1040,15 +1045,15 @@
     </row>
     <row r="24" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F24" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E25" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F25" s="3">
         <v>0.8</v>
@@ -1056,7 +1061,7 @@
     </row>
     <row r="26" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F26" s="3">
         <v>1.4</v>
@@ -1064,7 +1069,7 @@
     </row>
     <row r="27" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E27" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F27" s="3">
         <v>5.0999999999999997E-2</v>
@@ -1072,7 +1077,7 @@
     </row>
     <row r="28" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E28" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F28" s="3">
         <v>3.9E-2</v>
@@ -1080,10 +1085,19 @@
     </row>
     <row r="29" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E29" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F29" s="3">
         <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.35">
+      <c r="E30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F30" s="3">
+        <f>F22+F23+F24</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1092,11 +1106,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB88340B-D992-43B4-81B5-FA0C4C40B2C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10C3F14-FE8B-4850-9347-DC993C98CD13}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="16.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.90625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1">
+        <f>(PI()*(('Master Dimensions'!D3/2) - 'Master Dimensions'!B5)^2) - (PI()*0.35^2)</f>
+        <v>2.0204367753399355</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1">
+        <f>(PI()*('Master Dimensions'!B14/2)^2)-('Master Dimensions'!F30*PI()*('Master Dimensions'!F28/2)^2)</f>
+        <v>3.0914198481156374</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1">
+        <f>(PI()*(('Master Dimensions'!F4/2) - 'Master Dimensions'!F14 - 'Master Dimensions'!F13)^2) - (0.28^2*PI()*2)</f>
+        <v>12.968808633284024</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="1">
+        <v>3.32</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="1">
+        <v>13.34</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB88340B-D992-43B4-81B5-FA0C4C40B2C1}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1105,208 +1292,196 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1">
         <f>'Master Dimensions'!F3</f>
         <v>0.25</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1">
         <f>'Master Dimensions'!D2</f>
         <v>0.25</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1">
         <f>'Master Dimensions'!B6</f>
         <v>0.4</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1">
         <f>'Master Dimensions'!B3</f>
         <v>1.75</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="1">
         <f>'Master Dimensions'!B5</f>
         <v>0.25</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1">
         <f>'Master Dimensions'!B2</f>
         <v>6</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1">
         <f>'Master Dimensions'!F2</f>
         <v>4.5</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1">
         <f>'Master Dimensions'!D3</f>
         <v>2.25</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1">
         <f>'Master Dimensions'!B12</f>
         <v>0.08</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="1">
         <f>'Master Dimensions'!B13</f>
         <v>0.08</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="10">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="1">
         <f>'Master Dimensions'!B14</f>
         <v>2</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="1">
         <f>'Master Dimensions'!F10</f>
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="4"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="1">
         <f>'Master Dimensions'!B8</f>
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="4"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="1">
         <f>'Master Dimensions'!B9</f>
         <v>5.4</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="4"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="1">
         <f>'Master Dimensions'!B10</f>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="1">
         <f>'Master Dimensions'!F18</f>
         <v>3.65</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="A18" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="1">
         <f>'Master Dimensions'!F16</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="4"/>
+      <c r="A19" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="1">
         <f>'Master Dimensions'!F19</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1336,12 +1511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831A3F92-D26B-47A0-894F-2E39366607C3}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1350,160 +1525,154 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="10">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="1">
         <f>'Master Dimensions'!D2</f>
         <v>0.25</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="10">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="1">
         <f>'Master Dimensions'!D3</f>
         <v>2.25</v>
       </c>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1">
         <f>'Master Dimensions'!F17</f>
-        <v>2.25</v>
-      </c>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1">
         <f>'Master Dimensions'!F16</f>
         <v>0.1</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="1">
         <f>'Master Dimensions'!F19</f>
         <v>0.1</v>
       </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1">
         <f>'Master Dimensions'!F25</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1">
         <f>'Master Dimensions'!F26</f>
         <v>1.4</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1">
         <f>'Master Dimensions'!F27</f>
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="1">
         <f>'Master Dimensions'!F24</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="1">
         <f>'Master Dimensions'!F23</f>
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="4"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <f>'Master Dimensions'!F22</f>
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1515,11 +1684,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -1527,18 +1691,23 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6FADF1-9395-4E6B-BC32-4B1649CE3BDF}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1550,334 +1719,231 @@
     <col min="9" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="10">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="1">
         <f>'Master Dimensions'!F6</f>
         <v>0.1</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9">
+      <c r="B3" s="12"/>
+      <c r="C3" s="1">
         <f>'Master Dimensions'!F3</f>
         <v>0.25</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="C4" s="1">
         <f>'Master Dimensions'!F7</f>
         <v>1.75</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="9">
+      <c r="B5" s="12"/>
+      <c r="C5" s="1">
         <f>'Master Dimensions'!F8</f>
         <v>0.5</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9">
+      <c r="B6" s="12"/>
+      <c r="C6" s="1">
         <f>'Master Dimensions'!F4</f>
         <v>4.5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9">
+      <c r="B7" s="12"/>
+      <c r="C7" s="1">
         <f>'Master Dimensions'!F12</f>
         <v>0.08</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9">
+      <c r="B8" s="12"/>
+      <c r="C8" s="1">
         <f>'Master Dimensions'!F13</f>
         <v>0.08</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="9">
+      <c r="E8" s="14"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1">
         <f>'Master Dimensions'!F14</f>
         <v>0.1</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="10"/>
       <c r="C10" s="1">
         <f>'Master Dimensions'!F9</f>
         <v>0.67520000000000002</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10"/>
       <c r="C11" s="1">
         <f>'Master Dimensions'!F10</f>
         <v>3</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10"/>
       <c r="C12" s="1">
         <f>'Master Dimensions'!F16</f>
         <v>0.1</v>
       </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10"/>
       <c r="C13" s="1">
         <f>'Master Dimensions'!F17</f>
-        <v>2.25</v>
-      </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="10"/>
       <c r="C14" s="1">
         <f>'Master Dimensions'!F18</f>
         <v>3.65</v>
       </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="4"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10"/>
       <c r="C15" s="1">
         <f>'Master Dimensions'!F19</f>
         <v>0.1</v>
       </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="4"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="1">
         <f>'Master Dimensions'!F21</f>
         <v>5.8999999999999997E-2</v>
       </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="10"/>
       <c r="C17" s="1">
         <f>'Master Dimensions'!F22</f>
         <v>18</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="10"/>
       <c r="C18" s="1">
         <f>'Master Dimensions'!F23</f>
         <v>14</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10"/>
       <c r="C19" s="1">
         <f>'Master Dimensions'!F24</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="6"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="12"/>
       <c r="C20" s="1">
         <f>'Master Dimensions'!F25</f>
         <v>0.8</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="6"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="12"/>
       <c r="C21" s="1">
         <f>'Master Dimensions'!F26</f>
         <v>1.4</v>
@@ -1922,12 +1988,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B9B7CCC-865F-4579-BA0C-2C80C7C53E6D}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -1936,146 +2002,136 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10">
+      <c r="B2" s="10"/>
+      <c r="C2" s="1">
         <f>'Master Dimensions'!H2</f>
         <v>0.4</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1">
         <f>'Master Dimensions'!H3</f>
         <v>0.23699999999999999</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1">
         <f>'Master Dimensions'!H4</f>
         <v>6</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="1">
         <f>'Master Dimensions'!H5</f>
         <v>4.5</v>
       </c>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="1">
         <f>'Master Dimensions'!H6</f>
         <v>10</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="1">
         <f>'Master Dimensions'!B9</f>
         <v>5.4</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="1">
         <f>'Master Dimensions'!B8</f>
         <v>0.25</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="1">
         <f>'Master Dimensions'!B10</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2087,11 +2143,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -2099,15 +2150,20 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C7CB4C-8DD4-45CD-8E05-3782694D4013}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -2119,116 +2175,100 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1">
         <f>'Master Dimensions'!F16</f>
         <v>0.1</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1">
         <f>'Master Dimensions'!F19*2</f>
         <v>0.2</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2240,11 +2280,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -2252,15 +2287,20 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE9DAE8-D235-4C51-9008-B887B9C919C0}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -2272,121 +2312,106 @@
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="10"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="1">
         <f>'Master Dimensions'!F27</f>
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="10">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="1">
         <f>'Master Dimensions'!F28</f>
         <v>3.9E-2</v>
       </c>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="10">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="1">
         <f>'Master Dimensions'!F29</f>
         <v>0.4</v>
       </c>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -2398,11 +2423,6 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
@@ -2410,6 +2430,11 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
